--- a/CadastroColaboradores.xlsx
+++ b/CadastroColaboradores.xlsx
@@ -1,30 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiber\Documents\GitHub\QualCursou\QualCursou\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiber\Documents\GitHub\QualCursou\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0427863F-9DFB-435F-AAD8-0BD03E378DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880E7F34-2675-4B2D-B387-736DAD3D26B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="2" r:id="rId1"/>
     <sheet name="CadastroColaboradores.csv" sheetId="1" r:id="rId2"/>
+    <sheet name="BASE" sheetId="3" r:id="rId3"/>
+    <sheet name="Contagem de Finalizados" sheetId="4" r:id="rId4"/>
+    <sheet name="Campanha" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">BASE!$A$1:$G$64</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="43" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="182">
   <si>
     <t>ID Funcionário</t>
   </si>
@@ -471,12 +491,111 @@
   </si>
   <si>
     <t>Contagem de Curso</t>
+  </si>
+  <si>
+    <t>Nome do Aluno</t>
+  </si>
+  <si>
+    <t>Disciplina A</t>
+  </si>
+  <si>
+    <t>Disciplina B</t>
+  </si>
+  <si>
+    <t>Disciplina C</t>
+  </si>
+  <si>
+    <t>Disciplina D</t>
+  </si>
+  <si>
+    <t>Disciplina E</t>
+  </si>
+  <si>
+    <t>Disciplina F</t>
+  </si>
+  <si>
+    <t>Disciplina G</t>
+  </si>
+  <si>
+    <t>Aluno Um</t>
+  </si>
+  <si>
+    <t>Aluno Dois</t>
+  </si>
+  <si>
+    <t>Aluno Três</t>
+  </si>
+  <si>
+    <t>Aluno Quatro</t>
+  </si>
+  <si>
+    <t>Aluno Cinco</t>
+  </si>
+  <si>
+    <t>Disciplina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completo </t>
+  </si>
+  <si>
+    <t>Não iniciado</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Soma de Código</t>
+  </si>
+  <si>
+    <t>10 = Comp.; 0 = N.Inic.; 1=Pend.</t>
+  </si>
+  <si>
+    <t>Quantos completaram?</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Aluno Seis</t>
+  </si>
+  <si>
+    <t>Aluno Sete</t>
+  </si>
+  <si>
+    <t>Aluno Oito</t>
+  </si>
+  <si>
+    <t>Aluno Nove</t>
+  </si>
+  <si>
+    <t>Cursos na Campanha</t>
+  </si>
+  <si>
+    <t>Alunos na campanha</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Aluno Tá na Campanha?</t>
+  </si>
+  <si>
+    <t>Curso tá na campanha?</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Incluir linha?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,7 +732,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,8 +912,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -909,6 +1034,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -954,13 +1116,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1020,7 +1189,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hibernon Júnior" refreshedDate="45016.563435069445" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="114">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hibernon Júnior" refreshedDate="45016.563435069445" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="114" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:L115" sheet="CadastroColaboradores.csv"/>
   </cacheSource>
@@ -1194,6 +1363,63 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Hibernon Júnior" refreshedDate="45020.94812789352" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="63" xr:uid="{6B9283FE-5BEA-41BE-B286-68EA7B147C1F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G64" sheet="BASE"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Nome do Aluno" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Aluno Um"/>
+        <s v="Aluno Dois"/>
+        <s v="Aluno Três"/>
+        <s v="Aluno Quatro"/>
+        <s v="Aluno Cinco"/>
+        <s v="Aluno Seis"/>
+        <s v="Aluno Sete"/>
+        <s v="Aluno Oito"/>
+        <s v="Aluno Nove"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Disciplina" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Disciplina A"/>
+        <s v="Disciplina B"/>
+        <s v="Disciplina C"/>
+        <s v="Disciplina D"/>
+        <s v="Disciplina E"/>
+        <s v="Disciplina F"/>
+        <s v="Disciplina G"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Status" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Código" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="10"/>
+    </cacheField>
+    <cacheField name="Aluno Tá na Campanha?" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Curso tá na campanha?" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Incluir linha?" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="0"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="114">
   <r>
@@ -2795,8 +3021,580 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="63">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="5"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="6"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Sim"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="5"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="6"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="5"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="6"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="0"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="1"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="2"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="4"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="6"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="1"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Sim"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="2"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="3"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="5"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="0"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="1"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="3"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="4"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="5"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Sim"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="6"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Sim"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="0"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="2"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <s v="Não iniciado"/>
+    <n v="0"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="4"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="5"/>
+    <s v="Completo "/>
+    <n v="10"/>
+    <s v="Não"/>
+    <s v="Sim"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="6"/>
+    <s v="Pendente"/>
+    <n v="1"/>
+    <s v="Não"/>
+    <s v="Não"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -3162,6 +3960,109 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{08A0A57C-5C0E-4012-9D3D-E3391FDC5387}" name="Tabela dinâmica1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="6" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Soma de Código" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -3458,10 +4359,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3518,14 +4419,10 @@
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
@@ -3533,14 +4430,10 @@
       <c r="A6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
@@ -3548,14 +4441,10 @@
       <c r="A7" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
@@ -3563,14 +4452,10 @@
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
@@ -3578,14 +4463,10 @@
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
@@ -3593,14 +4474,10 @@
       <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
@@ -3608,14 +4485,10 @@
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
@@ -3623,14 +4496,10 @@
       <c r="A12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>1</v>
       </c>
     </row>
@@ -3638,14 +4507,10 @@
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>1</v>
       </c>
     </row>
@@ -3653,14 +4518,10 @@
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
@@ -3668,14 +4529,10 @@
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
     </row>
@@ -3683,14 +4540,10 @@
       <c r="A16" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
     </row>
@@ -3698,14 +4551,10 @@
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
     </row>
@@ -3713,14 +4562,10 @@
       <c r="A18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
@@ -3728,14 +4573,10 @@
       <c r="A19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
     </row>
@@ -3743,14 +4584,10 @@
       <c r="A20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>1</v>
       </c>
     </row>
@@ -3758,14 +4595,10 @@
       <c r="A21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="G21">
         <v>1</v>
       </c>
     </row>
@@ -3773,14 +4606,10 @@
       <c r="A22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
@@ -3788,14 +4617,10 @@
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
     </row>
@@ -3803,14 +4628,10 @@
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
     </row>
@@ -3818,14 +4639,10 @@
       <c r="A25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
     </row>
@@ -3833,14 +4650,10 @@
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
@@ -3848,14 +4661,10 @@
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="G27">
         <v>1</v>
       </c>
     </row>
@@ -3863,14 +4672,10 @@
       <c r="A28" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>1</v>
       </c>
     </row>
@@ -3878,14 +4683,10 @@
       <c r="A29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
     </row>
@@ -3893,14 +4694,10 @@
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>1</v>
       </c>
     </row>
@@ -3908,14 +4705,10 @@
       <c r="A31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
     </row>
@@ -3923,14 +4716,10 @@
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>1</v>
       </c>
     </row>
@@ -3938,14 +4727,10 @@
       <c r="A33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>1</v>
       </c>
     </row>
@@ -3953,14 +4738,10 @@
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>1</v>
       </c>
     </row>
@@ -3968,14 +4749,10 @@
       <c r="A35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>1</v>
       </c>
     </row>
@@ -3983,14 +4760,10 @@
       <c r="A36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>1</v>
       </c>
     </row>
@@ -3998,14 +4771,10 @@
       <c r="A37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="G37">
         <v>1</v>
       </c>
     </row>
@@ -4013,14 +4782,10 @@
       <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
         <v>1</v>
       </c>
     </row>
@@ -4028,14 +4793,10 @@
       <c r="A39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="G39">
         <v>1</v>
       </c>
     </row>
@@ -4043,14 +4804,10 @@
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3">
-        <v>1</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3">
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="G40">
         <v>1</v>
       </c>
     </row>
@@ -4058,14 +4815,10 @@
       <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3">
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="G41">
         <v>1</v>
       </c>
     </row>
@@ -4073,14 +4826,10 @@
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3">
-        <v>1</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
     </row>
@@ -4088,14 +4837,10 @@
       <c r="A43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="G43">
         <v>1</v>
       </c>
     </row>
@@ -4103,14 +4848,10 @@
       <c r="A44" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3">
-        <v>1</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>
@@ -4118,14 +4859,10 @@
       <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3">
-        <v>1</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
         <v>1</v>
       </c>
     </row>
@@ -4133,14 +4870,10 @@
       <c r="A46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="G46">
         <v>1</v>
       </c>
     </row>
@@ -4148,14 +4881,10 @@
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="G47">
         <v>1</v>
       </c>
     </row>
@@ -4163,14 +4892,10 @@
       <c r="A48" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48">
         <v>1</v>
       </c>
     </row>
@@ -4178,14 +4903,10 @@
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>1</v>
       </c>
     </row>
@@ -4193,14 +4914,10 @@
       <c r="A50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="G50">
         <v>1</v>
       </c>
     </row>
@@ -4208,14 +4925,10 @@
       <c r="A51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
         <v>1</v>
       </c>
     </row>
@@ -4223,14 +4936,10 @@
       <c r="A52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52">
         <v>1</v>
       </c>
     </row>
@@ -4238,14 +4947,10 @@
       <c r="A53" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3">
-        <v>1</v>
-      </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="G53">
         <v>1</v>
       </c>
     </row>
@@ -4253,14 +4958,10 @@
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3">
-        <v>1</v>
-      </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3">
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="G54">
         <v>1</v>
       </c>
     </row>
@@ -4268,14 +4969,10 @@
       <c r="A55" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="G55">
         <v>1</v>
       </c>
     </row>
@@ -4283,14 +4980,10 @@
       <c r="A56" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
         <v>1</v>
       </c>
     </row>
@@ -4298,14 +4991,10 @@
       <c r="A57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="G57">
         <v>1</v>
       </c>
     </row>
@@ -4313,14 +5002,10 @@
       <c r="A58" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58">
         <v>1</v>
       </c>
     </row>
@@ -4328,14 +5013,10 @@
       <c r="A59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
         <v>1</v>
       </c>
     </row>
@@ -4343,14 +5024,10 @@
       <c r="A60" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="G60">
         <v>1</v>
       </c>
     </row>
@@ -4358,22 +5035,22 @@
       <c r="A61" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>13</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>11</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>10</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
         <v>10</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61">
         <v>12</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61">
         <v>56</v>
       </c>
     </row>
@@ -4383,7 +5060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8778,4 +9455,2199 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28CB3D2-B9DC-47AF-8982-98FBACCEFF69}">
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="8" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2">
+        <f>IF(C2=$I$4,10,IF(C2=$I$5,0,IF(C2=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.XLOOKUP(A2,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.XLOOKUP(B2,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G2">
+        <f>IF(AND(E2=$I$9,F2=$I$9),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3">
+        <f>IF(C3=$I$4,10,IF(C3=$I$5,0,IF(C3=$I$6,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.XLOOKUP(A3,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F3" t="str">
+        <f>_xlfn.XLOOKUP(B3,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G64" si="0">IF(AND(E3=$I$9,F3=$I$9),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4">
+        <f>IF(C4=$I$4,10,IF(C4=$I$5,0,IF(C4=$I$6,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.XLOOKUP(A4,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F4" t="str">
+        <f>_xlfn.XLOOKUP(B4,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5">
+        <f>IF(C5=$I$4,10,IF(C5=$I$5,0,IF(C5=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.XLOOKUP(A5,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F5" t="str">
+        <f>_xlfn.XLOOKUP(B5,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6">
+        <f>IF(C6=$I$4,10,IF(C6=$I$5,0,IF(C6=$I$6,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.XLOOKUP(A6,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F6" t="str">
+        <f>_xlfn.XLOOKUP(B6,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7">
+        <f>IF(C7=$I$4,10,IF(C7=$I$5,0,IF(C7=$I$6,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.XLOOKUP(A7,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F7" t="str">
+        <f>_xlfn.XLOOKUP(B7,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8">
+        <f>IF(C8=$I$4,10,IF(C8=$I$5,0,IF(C8=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.XLOOKUP(A8,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F8" t="str">
+        <f>_xlfn.XLOOKUP(B8,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9">
+        <f>IF(C9=$I$4,10,IF(C9=$I$5,0,IF(C9=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.XLOOKUP(A9,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F9" t="str">
+        <f>_xlfn.XLOOKUP(B9,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10">
+        <f>IF(C10=$I$4,10,IF(C10=$I$5,0,IF(C10=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.XLOOKUP(A10,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F10" t="str">
+        <f>_xlfn.XLOOKUP(B10,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11">
+        <f>IF(C11=$I$4,10,IF(C11=$I$5,0,IF(C11=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.XLOOKUP(A11,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F11" t="str">
+        <f>_xlfn.XLOOKUP(B11,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12">
+        <f>IF(C12=$I$4,10,IF(C12=$I$5,0,IF(C12=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.XLOOKUP(A12,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F12" t="str">
+        <f>_xlfn.XLOOKUP(B12,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13">
+        <f>IF(C13=$I$4,10,IF(C13=$I$5,0,IF(C13=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E13" t="str">
+        <f>_xlfn.XLOOKUP(A13,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F13" t="str">
+        <f>_xlfn.XLOOKUP(B13,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14">
+        <f>IF(C14=$I$4,10,IF(C14=$I$5,0,IF(C14=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.XLOOKUP(A14,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F14" t="str">
+        <f>_xlfn.XLOOKUP(B14,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15">
+        <f>IF(C15=$I$4,10,IF(C15=$I$5,0,IF(C15=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E15" t="str">
+        <f>_xlfn.XLOOKUP(A15,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F15" t="str">
+        <f>_xlfn.XLOOKUP(B15,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16">
+        <f>IF(C16=$I$4,10,IF(C16=$I$5,0,IF(C16=$I$6,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.XLOOKUP(A16,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F16" t="str">
+        <f>_xlfn.XLOOKUP(B16,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17">
+        <f>IF(C17=$I$4,10,IF(C17=$I$5,0,IF(C17=$I$6,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E17" t="str">
+        <f>_xlfn.XLOOKUP(A17,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F17" t="str">
+        <f>_xlfn.XLOOKUP(B17,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18">
+        <f>IF(C18=$I$4,10,IF(C18=$I$5,0,IF(C18=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E18" t="str">
+        <f>_xlfn.XLOOKUP(A18,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F18" t="str">
+        <f>_xlfn.XLOOKUP(B18,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19">
+        <f>IF(C19=$I$4,10,IF(C19=$I$5,0,IF(C19=$I$6,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="str">
+        <f>_xlfn.XLOOKUP(A19,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F19" t="str">
+        <f>_xlfn.XLOOKUP(B19,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20">
+        <f>IF(C20=$I$4,10,IF(C20=$I$5,0,IF(C20=$I$6,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <f>_xlfn.XLOOKUP(A20,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F20" t="str">
+        <f>_xlfn.XLOOKUP(B20,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21">
+        <f>IF(C21=$I$4,10,IF(C21=$I$5,0,IF(C21=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E21" t="str">
+        <f>_xlfn.XLOOKUP(A21,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F21" t="str">
+        <f>_xlfn.XLOOKUP(B21,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22">
+        <f>IF(C22=$I$4,10,IF(C22=$I$5,0,IF(C22=$I$6,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.XLOOKUP(A22,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F22" t="str">
+        <f>_xlfn.XLOOKUP(B22,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D64" si="1">IF(C23=$I$4,10,IF(C23=$I$5,0,IF(C23=$I$6,1,0)))</f>
+        <v>10</v>
+      </c>
+      <c r="E23" t="str">
+        <f>_xlfn.XLOOKUP(A23,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F23" t="str">
+        <f>_xlfn.XLOOKUP(B23,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f>_xlfn.XLOOKUP(A24,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F24" t="str">
+        <f>_xlfn.XLOOKUP(B24,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <f>_xlfn.XLOOKUP(A25,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F25" t="str">
+        <f>_xlfn.XLOOKUP(B25,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E26" t="str">
+        <f>_xlfn.XLOOKUP(A26,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F26" t="str">
+        <f>_xlfn.XLOOKUP(B26,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f>_xlfn.XLOOKUP(A27,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F27" t="str">
+        <f>_xlfn.XLOOKUP(B27,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28" t="str">
+        <f>_xlfn.XLOOKUP(A28,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F28" t="str">
+        <f>_xlfn.XLOOKUP(B28,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E29" t="str">
+        <f>_xlfn.XLOOKUP(A29,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F29" t="str">
+        <f>_xlfn.XLOOKUP(B29,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E30" t="str">
+        <f>_xlfn.XLOOKUP(A30,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F30" t="str">
+        <f>_xlfn.XLOOKUP(B30,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E31" t="str">
+        <f>_xlfn.XLOOKUP(A31,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F31" t="str">
+        <f>_xlfn.XLOOKUP(B31,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.XLOOKUP(A32,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F32" t="str">
+        <f>_xlfn.XLOOKUP(B32,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E33" t="str">
+        <f>_xlfn.XLOOKUP(A33,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F33" t="str">
+        <f>_xlfn.XLOOKUP(B33,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E34" t="str">
+        <f>_xlfn.XLOOKUP(A34,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F34" t="str">
+        <f>_xlfn.XLOOKUP(B34,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E35" t="str">
+        <f>_xlfn.XLOOKUP(A35,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F35" t="str">
+        <f>_xlfn.XLOOKUP(B35,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E36" t="str">
+        <f>_xlfn.XLOOKUP(A36,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F36" t="str">
+        <f>_xlfn.XLOOKUP(B36,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E37" t="str">
+        <f>_xlfn.XLOOKUP(A37,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F37" t="str">
+        <f>_xlfn.XLOOKUP(B37,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <f>_xlfn.XLOOKUP(A38,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F38" t="str">
+        <f>_xlfn.XLOOKUP(B38,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E39" t="str">
+        <f>_xlfn.XLOOKUP(A39,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F39" t="str">
+        <f>_xlfn.XLOOKUP(B39,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E40" t="str">
+        <f>_xlfn.XLOOKUP(A40,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F40" t="str">
+        <f>_xlfn.XLOOKUP(B40,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E41" t="str">
+        <f>_xlfn.XLOOKUP(A41,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F41" t="str">
+        <f>_xlfn.XLOOKUP(B41,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E42" t="str">
+        <f>_xlfn.XLOOKUP(A42,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F42" t="str">
+        <f>_xlfn.XLOOKUP(B42,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E43" t="str">
+        <f>_xlfn.XLOOKUP(A43,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F43" t="str">
+        <f>_xlfn.XLOOKUP(B43,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E44" t="str">
+        <f>_xlfn.XLOOKUP(A44,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F44" t="str">
+        <f>_xlfn.XLOOKUP(B44,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E45" t="str">
+        <f>_xlfn.XLOOKUP(A45,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F45" t="str">
+        <f>_xlfn.XLOOKUP(B45,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" t="s">
+        <v>165</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E46" t="str">
+        <f>_xlfn.XLOOKUP(A46,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F46" t="str">
+        <f>_xlfn.XLOOKUP(B46,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E47" t="str">
+        <f>_xlfn.XLOOKUP(A47,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F47" t="str">
+        <f>_xlfn.XLOOKUP(B47,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E48" t="str">
+        <f>_xlfn.XLOOKUP(A48,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F48" t="str">
+        <f>_xlfn.XLOOKUP(B48,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>172</v>
+      </c>
+      <c r="B49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <f>_xlfn.XLOOKUP(A49,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F49" t="str">
+        <f>_xlfn.XLOOKUP(B49,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E50" t="str">
+        <f>_xlfn.XLOOKUP(A50,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F50" t="str">
+        <f>_xlfn.XLOOKUP(B50,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E51" t="str">
+        <f>_xlfn.XLOOKUP(A51,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F51" t="str">
+        <f>_xlfn.XLOOKUP(B51,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>173</v>
+      </c>
+      <c r="B52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E52" t="str">
+        <f>_xlfn.XLOOKUP(A52,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F52" t="str">
+        <f>_xlfn.XLOOKUP(B52,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E53" t="str">
+        <f>_xlfn.XLOOKUP(A53,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F53" t="str">
+        <f>_xlfn.XLOOKUP(B53,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E54" t="str">
+        <f>_xlfn.XLOOKUP(A54,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F54" t="str">
+        <f>_xlfn.XLOOKUP(B54,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E55" t="str">
+        <f>_xlfn.XLOOKUP(A55,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F55" t="str">
+        <f>_xlfn.XLOOKUP(B55,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E56" t="str">
+        <f>_xlfn.XLOOKUP(A56,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F56" t="str">
+        <f>_xlfn.XLOOKUP(B56,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E57" t="str">
+        <f>_xlfn.XLOOKUP(A57,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="F57" t="str">
+        <f>_xlfn.XLOOKUP(B57,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E58" t="str">
+        <f>_xlfn.XLOOKUP(A58,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F58" t="str">
+        <f>_xlfn.XLOOKUP(B58,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E59" t="str">
+        <f>_xlfn.XLOOKUP(A59,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F59" t="str">
+        <f>_xlfn.XLOOKUP(B59,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E60" t="str">
+        <f>_xlfn.XLOOKUP(A60,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F60" t="str">
+        <f>_xlfn.XLOOKUP(B60,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>174</v>
+      </c>
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E61" t="str">
+        <f>_xlfn.XLOOKUP(A61,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F61" t="str">
+        <f>_xlfn.XLOOKUP(B61,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <f>_xlfn.XLOOKUP(A62,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F62" t="str">
+        <f>_xlfn.XLOOKUP(B62,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>174</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>163</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E63" t="str">
+        <f>_xlfn.XLOOKUP(A63,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F63" t="str">
+        <f>_xlfn.XLOOKUP(B63,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Sim</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>174</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
+        <v>165</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E64" t="str">
+        <f>_xlfn.XLOOKUP(A64,Campanha!$C$2:$C$5,Campanha!$D$2:$D$5,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="F64" t="str">
+        <f>_xlfn.XLOOKUP(B64,Campanha!$A$2:$A$6,Campanha!$B$2:$B$6,$I$8)</f>
+        <v>Não</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G64" xr:uid="{A28CB3D2-B9DC-47AF-8982-98FBACCEFF69}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7354B811-4A91-4AEC-BC38-F73224A99F27}">
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="2.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>22</v>
+      </c>
+      <c r="L5">
+        <f>G5</f>
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <f>IF(L5=50,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6:L19" si="0">G6</f>
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M19" si="1">IF(L6=50,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>22</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>50</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="3">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
+      <c r="E9" s="3">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
+        <v>22</v>
+      </c>
+      <c r="G9" s="3">
+        <v>144</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" s="7">
+        <f>SUM(M5:M19)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83676528-5617-485C-8D36-4922B8F3FBC5}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>